--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_5_18.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_5_18.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>473437.3285292183</v>
+        <v>471180.3066201351</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6654055.582836235</v>
+        <v>6654055.582836238</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673433</v>
+        <v>603248.4937673435</v>
       </c>
     </row>
     <row r="9">
@@ -659,10 +659,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -671,13 +671,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>19.77778968381005</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,10 +707,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -719,13 +719,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>344.7136147194414</v>
       </c>
     </row>
     <row r="3">
@@ -814,10 +814,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>83.82466560786655</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -826,7 +826,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -838,7 +838,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -862,19 +862,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>150.3259629886457</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -902,7 +902,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>39.19922718108403</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -911,7 +911,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>131.8847837796738</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -941,7 +941,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -950,16 +950,16 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -993,7 +993,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1057,25 +1057,25 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>18.37682225755638</v>
+        <v>139.3733281349268</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923383</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1102,7 +1102,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1133,25 +1133,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>319.5469155288123</v>
       </c>
       <c r="G8" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>80.07933883539148</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,28 +1178,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1297,19 +1297,19 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>27.61199297579829</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1345,19 +1345,19 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>123.4514883688806</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1388,7 +1388,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292587</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1421,7 +1421,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U11" t="n">
         <v>250.995171958902</v>
@@ -1464,10 +1464,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851113</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247654</v>
+        <v>18.81721868247739</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,10 +1494,10 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734111903</v>
       </c>
       <c r="S12" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T12" t="n">
         <v>190.7165703189231</v>
@@ -1528,25 +1528,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>40.64497115397621</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>96.35242040983806</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,10 +1576,10 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>207.2306382726216</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.2118382056129</v>
@@ -1594,7 +1594,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1768,22 +1768,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>50.11668345603108</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1816,22 +1816,22 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2118382056129</v>
+        <v>128.0896751668745</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1847,7 +1847,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.6830416206834</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1941,7 +1941,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247654</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -1999,19 +1999,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2020,7 +2020,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,19 +2050,19 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>41.45703344346533</v>
       </c>
       <c r="T19" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>43.9709483527487</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2099,7 +2099,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2132,7 +2132,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T20" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U20" t="n">
         <v>250.995171958902</v>
@@ -2175,10 +2175,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H21" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2242,16 +2242,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>144.7550149143208</v>
@@ -2287,22 +2287,22 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>2.727003575186238</v>
       </c>
       <c r="X22" t="n">
-        <v>194.3888702009224</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2336,7 +2336,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292587</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2369,7 +2369,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T23" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U23" t="n">
         <v>250.995171958902</v>
@@ -2412,10 +2412,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H24" t="n">
-        <v>89.59687541851113</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247739</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,10 +2442,10 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734111903</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S24" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T24" t="n">
         <v>190.7165703189231</v>
@@ -2473,25 +2473,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>91.52974624397862</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,28 +2521,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004729</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S25" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
-        <v>135.9114955019777</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2573,7 +2573,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2606,7 +2606,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T26" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U26" t="n">
         <v>250.995171958902</v>
@@ -2649,10 +2649,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H27" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I27" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2710,10 +2710,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>42.0120131744532</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2722,13 +2722,13 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
-        <v>35.19569619650047</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2761,7 +2761,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>219.5489492761692</v>
@@ -2779,7 +2779,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2789,7 +2789,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2849,7 +2849,7 @@
         <v>250.995171958902</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701355</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2947,19 +2947,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>14.22746565719282</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>189.7690253314419</v>
@@ -3004,10 +3004,10 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2118382056129</v>
+        <v>270.0697021486467</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3047,7 +3047,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I32" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3080,7 +3080,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T32" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U32" t="n">
         <v>250.995171958902</v>
@@ -3123,10 +3123,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H33" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I33" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,10 +3153,10 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S33" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T33" t="n">
         <v>190.7165703189231</v>
@@ -3184,13 +3184,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3205,7 +3205,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3247,13 +3247,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>205.2449490335115</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>35.19569619650099</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3281,10 +3281,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H35" t="n">
-        <v>294.6077643873205</v>
+        <v>294.6077643873208</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3317,7 +3317,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T35" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U35" t="n">
         <v>250.995171958902</v>
@@ -3360,10 +3360,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H36" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I36" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3424,19 +3424,19 @@
         <v>178.7757248935319</v>
       </c>
       <c r="C37" t="n">
-        <v>117.0884607296422</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>145.3777073581637</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>144.3647927345258</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>0.5897927156059168</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3472,7 +3472,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>188.7127700430365</v>
       </c>
       <c r="T37" t="n">
         <v>218.4926939877638</v>
@@ -3487,10 +3487,10 @@
         <v>285.4667430481856</v>
       </c>
       <c r="X37" t="n">
-        <v>224.6534001006317</v>
+        <v>224.6534001006318</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>217.5283980636894</v>
       </c>
     </row>
     <row r="38">
@@ -3515,13 +3515,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>410.9217256534538</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H38" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292636</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3554,7 +3554,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T38" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U38" t="n">
         <v>250.995171958902</v>
@@ -3597,10 +3597,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H39" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I39" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>132.8568435633448</v>
+        <v>132.8568435633447</v>
       </c>
       <c r="C40" t="n">
-        <v>120.2716844800353</v>
+        <v>120.2716844800352</v>
       </c>
       <c r="D40" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E40" t="n">
-        <v>99.45882602797664</v>
+        <v>99.45882602797658</v>
       </c>
       <c r="F40" t="n">
-        <v>98.44591140433872</v>
+        <v>98.44591140433866</v>
       </c>
       <c r="G40" t="n">
-        <v>119.0506716404357</v>
+        <v>119.0506716404356</v>
       </c>
       <c r="H40" t="n">
-        <v>97.77987829572825</v>
+        <v>97.7798782957282</v>
       </c>
       <c r="I40" t="n">
-        <v>49.37728379124557</v>
+        <v>49.37728379124552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3706,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.9570160514548</v>
+        <v>41.95701605145476</v>
       </c>
       <c r="S40" t="n">
-        <v>142.7938887128494</v>
+        <v>142.7938887128493</v>
       </c>
       <c r="T40" t="n">
-        <v>172.5738126575767</v>
+        <v>172.5738126575766</v>
       </c>
       <c r="U40" t="n">
         <v>239.2367015870203</v>
       </c>
       <c r="V40" t="n">
-        <v>205.1625067052355</v>
+        <v>205.1625067052354</v>
       </c>
       <c r="W40" t="n">
-        <v>239.5478617179985</v>
+        <v>239.5478617179984</v>
       </c>
       <c r="X40" t="n">
         <v>178.7345187704446</v>
       </c>
       <c r="Y40" t="n">
-        <v>171.6095167335023</v>
+        <v>171.6095167335024</v>
       </c>
     </row>
     <row r="41">
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3758,7 +3758,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292636</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3898,25 +3898,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C43" t="n">
-        <v>120.2716844800353</v>
+        <v>120.2716844800352</v>
       </c>
       <c r="D43" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E43" t="n">
-        <v>99.45882602797661</v>
+        <v>99.45882602797658</v>
       </c>
       <c r="F43" t="n">
-        <v>98.44591140433869</v>
+        <v>98.44591140433866</v>
       </c>
       <c r="G43" t="n">
-        <v>119.0506716404357</v>
+        <v>119.0506716404356</v>
       </c>
       <c r="H43" t="n">
-        <v>97.77987829572822</v>
+        <v>97.7798782957282</v>
       </c>
       <c r="I43" t="n">
-        <v>49.37728379124554</v>
+        <v>49.37728379124551</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.95701605145542</v>
+        <v>41.95701605145565</v>
       </c>
       <c r="S43" t="n">
         <v>142.7938887128493</v>
@@ -3995,7 +3995,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4028,7 +4028,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T44" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U44" t="n">
         <v>250.995171958902</v>
@@ -4071,10 +4071,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H45" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S45" t="n">
         <v>128.1435076414547</v>
@@ -4135,25 +4135,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C46" t="n">
-        <v>120.2716844800353</v>
+        <v>120.2716844800352</v>
       </c>
       <c r="D46" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E46" t="n">
-        <v>99.45882602797661</v>
+        <v>99.45882602797658</v>
       </c>
       <c r="F46" t="n">
-        <v>98.44591140433869</v>
+        <v>98.44591140433866</v>
       </c>
       <c r="G46" t="n">
-        <v>119.0506716404357</v>
+        <v>119.0506716404356</v>
       </c>
       <c r="H46" t="n">
-        <v>97.77987829572822</v>
+        <v>97.7798782957282</v>
       </c>
       <c r="I46" t="n">
-        <v>49.37728379124554</v>
+        <v>49.37728379124552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.95701605145477</v>
+        <v>41.95701605145476</v>
       </c>
       <c r="S46" t="n">
         <v>142.7938887128493</v>
@@ -4304,43 +4304,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1580.775345511216</v>
+        <v>1954.141365880777</v>
       </c>
       <c r="C2" t="n">
-        <v>1211.812828570804</v>
+        <v>1954.141365880777</v>
       </c>
       <c r="D2" t="n">
-        <v>1211.812828570804</v>
+        <v>1595.875667274027</v>
       </c>
       <c r="E2" t="n">
-        <v>826.0245759725601</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="F2" t="n">
-        <v>415.0386711829526</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G2" t="n">
-        <v>401.1152671215435</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H2" t="n">
-        <v>73.92054715754631</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4355,25 +4355,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2697.149091018222</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T2" t="n">
-        <v>2697.149091018222</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U2" t="n">
-        <v>2697.149091018222</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="V2" t="n">
-        <v>2697.149091018222</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="W2" t="n">
-        <v>2344.380435748108</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="X2" t="n">
-        <v>1970.914677487028</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="Y2" t="n">
-        <v>1580.775345511216</v>
+        <v>1954.141365880777</v>
       </c>
     </row>
     <row r="3">
@@ -4383,49 +4383,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>309.1903022614629</v>
+        <v>266.2060027641987</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N3" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4446,10 +4446,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>246.4894537511404</v>
+        <v>184.2708856551155</v>
       </c>
       <c r="C4" t="n">
-        <v>246.4894537511404</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="D4" t="n">
-        <v>246.4894537511404</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="E4" t="n">
-        <v>246.4894537511404</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="F4" t="n">
-        <v>99.59950625323009</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="G4" t="n">
-        <v>99.59950625323009</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="H4" t="n">
-        <v>99.59950625323009</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="I4" t="n">
-        <v>99.59950625323009</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K4" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>428.1379185813802</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U4" t="n">
-        <v>428.1379185813802</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="V4" t="n">
-        <v>428.1379185813802</v>
+        <v>184.2708856551155</v>
       </c>
       <c r="W4" t="n">
-        <v>428.1379185813802</v>
+        <v>184.2708856551155</v>
       </c>
       <c r="X4" t="n">
-        <v>428.1379185813802</v>
+        <v>184.2708856551155</v>
       </c>
       <c r="Y4" t="n">
-        <v>428.1379185813802</v>
+        <v>184.2708856551155</v>
       </c>
     </row>
     <row r="5">
@@ -4541,43 +4541,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1527.841322636248</v>
+        <v>1761.414268258235</v>
       </c>
       <c r="C5" t="n">
-        <v>1527.841322636248</v>
+        <v>1761.414268258235</v>
       </c>
       <c r="D5" t="n">
-        <v>1169.575624029497</v>
+        <v>1403.148569651485</v>
       </c>
       <c r="E5" t="n">
-        <v>1169.575624029497</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F5" t="n">
-        <v>758.5897192398897</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G5" t="n">
-        <v>340.6259111380766</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
         <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2520.971603332392</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2520.971603332392</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>2267.209817970484</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V5" t="n">
-        <v>2267.209817970484</v>
+        <v>2134.880026519315</v>
       </c>
       <c r="W5" t="n">
-        <v>1914.441162700369</v>
+        <v>2134.880026519315</v>
       </c>
       <c r="X5" t="n">
-        <v>1914.441162700369</v>
+        <v>1761.414268258235</v>
       </c>
       <c r="Y5" t="n">
-        <v>1914.441162700369</v>
+        <v>1761.414268258235</v>
       </c>
     </row>
     <row r="6">
@@ -4641,7 +4641,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
         <v>129.2001442204943</v>
@@ -4650,16 +4650,16 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598713</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
         <v>2525.076107152626</v>
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="C7" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="D7" t="n">
-        <v>728.1289842064342</v>
+        <v>363.7239216122612</v>
       </c>
       <c r="E7" t="n">
-        <v>709.5665374816298</v>
+        <v>222.942782082032</v>
       </c>
       <c r="F7" t="n">
-        <v>562.6765899837194</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G7" t="n">
-        <v>393.6767897220518</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
@@ -4750,25 +4750,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="Y7" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245969</v>
       </c>
     </row>
     <row r="8">
@@ -4778,43 +4778,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1349.569168355879</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="C8" t="n">
-        <v>1349.569168355879</v>
+        <v>2019.396099246395</v>
       </c>
       <c r="D8" t="n">
-        <v>1349.569168355879</v>
+        <v>1661.130400639645</v>
       </c>
       <c r="E8" t="n">
-        <v>963.7809157576351</v>
+        <v>1275.342148041401</v>
       </c>
       <c r="F8" t="n">
-        <v>552.7950109680276</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G8" t="n">
-        <v>134.8312028662144</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036444</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548715</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862885</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2465.942913862885</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U8" t="n">
-        <v>2465.942913862885</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V8" t="n">
-        <v>2465.942913862885</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="W8" t="n">
-        <v>2113.174258592771</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="X8" t="n">
-        <v>1739.708500331691</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="Y8" t="n">
-        <v>1349.569168355879</v>
+        <v>2388.358616186807</v>
       </c>
     </row>
     <row r="9">
@@ -4878,25 +4878,25 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036444</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.1903022614629</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
         <v>2525.076107152626</v>
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>348.7460229006679</v>
+        <v>218.1627947174721</v>
       </c>
       <c r="C10" t="n">
-        <v>348.7460229006679</v>
+        <v>218.1627947174721</v>
       </c>
       <c r="D10" t="n">
-        <v>348.7460229006679</v>
+        <v>218.1627947174721</v>
       </c>
       <c r="E10" t="n">
-        <v>200.8329293182748</v>
+        <v>218.1627947174721</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036444</v>
+        <v>218.1627947174721</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036444</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036444</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4993,19 +4993,19 @@
         <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V10" t="n">
-        <v>473.4444960005474</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="W10" t="n">
-        <v>348.7460229006679</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="X10" t="n">
-        <v>348.7460229006679</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="Y10" t="n">
-        <v>348.7460229006679</v>
+        <v>218.1627947174721</v>
       </c>
     </row>
     <row r="11">
@@ -5027,10 +5027,10 @@
         <v>1261.199888544771</v>
       </c>
       <c r="F11" t="n">
-        <v>850.2139837551618</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G11" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001583</v>
       </c>
       <c r="H11" t="n">
         <v>137.5579332089256</v>
@@ -5039,28 +5039,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J11" t="n">
-        <v>284.4401654074198</v>
+        <v>284.4401654074201</v>
       </c>
       <c r="K11" t="n">
-        <v>939.1634975427193</v>
+        <v>939.1634975427198</v>
       </c>
       <c r="L11" t="n">
-        <v>1803.682313196074</v>
+        <v>1390.197710791129</v>
       </c>
       <c r="M11" t="n">
-        <v>2649.230460361822</v>
+        <v>2368.748013620958</v>
       </c>
       <c r="N11" t="n">
-        <v>3196.009277420604</v>
+        <v>3348.500285847605</v>
       </c>
       <c r="O11" t="n">
-        <v>4075.973927750059</v>
+        <v>3865.782086996752</v>
       </c>
       <c r="P11" t="n">
-        <v>4470.748294107237</v>
+        <v>4260.55645335393</v>
       </c>
       <c r="Q11" t="n">
-        <v>4719.034655862919</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R11" t="n">
         <v>4778.051722419721</v>
@@ -5094,70 +5094,70 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>970.5927724973187</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C12" t="n">
-        <v>796.1397432161917</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D12" t="n">
-        <v>647.2053335549405</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E12" t="n">
-        <v>487.967878549485</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F12" t="n">
-        <v>341.43332057637</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G12" t="n">
-        <v>205.0702204089881</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H12" t="n">
-        <v>114.5683260468556</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I12" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J12" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K12" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193591</v>
       </c>
       <c r="L12" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320247</v>
       </c>
       <c r="M12" t="n">
-        <v>1241.47698845434</v>
+        <v>1241.476988454341</v>
       </c>
       <c r="N12" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008796</v>
       </c>
       <c r="O12" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P12" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q12" t="n">
-        <v>2594.102460549551</v>
+        <v>2594.102460549554</v>
       </c>
       <c r="R12" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S12" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T12" t="n">
-        <v>2271.877220313402</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U12" t="n">
         <v>2043.809373447818</v>
       </c>
       <c r="V12" t="n">
-        <v>1808.657265216075</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W12" t="n">
-        <v>1554.419908487873</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X12" t="n">
         <v>1346.568408282341</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>540.4807149410336</v>
+        <v>720.6978970137305</v>
       </c>
       <c r="C13" t="n">
-        <v>540.4807149410336</v>
+        <v>551.7617140858237</v>
       </c>
       <c r="D13" t="n">
-        <v>390.3640755286979</v>
+        <v>401.6450746734879</v>
       </c>
       <c r="E13" t="n">
-        <v>242.4509819463048</v>
+        <v>360.5895482553301</v>
       </c>
       <c r="F13" t="n">
-        <v>95.56103444839442</v>
+        <v>360.5895482553301</v>
       </c>
       <c r="G13" t="n">
-        <v>95.56103444839442</v>
+        <v>192.886711630049</v>
       </c>
       <c r="H13" t="n">
-        <v>95.56103444839442</v>
+        <v>192.886711630049</v>
       </c>
       <c r="I13" t="n">
         <v>95.56103444839442</v>
@@ -5200,49 +5200,49 @@
         <v>140.68366689533</v>
       </c>
       <c r="K13" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442065</v>
       </c>
       <c r="L13" t="n">
-        <v>661.2306482927023</v>
+        <v>661.2306482927027</v>
       </c>
       <c r="M13" t="n">
-        <v>1005.387693892251</v>
+        <v>1005.387693892252</v>
       </c>
       <c r="N13" t="n">
-        <v>1346.796070598116</v>
+        <v>1346.796070598117</v>
       </c>
       <c r="O13" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P13" t="n">
-        <v>1878.733169952189</v>
+        <v>1878.73316995219</v>
       </c>
       <c r="Q13" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R13" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S13" t="n">
-        <v>1764.657581931529</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T13" t="n">
-        <v>1555.333704888477</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="U13" t="n">
-        <v>1266.230838014121</v>
+        <v>1667.240599230348</v>
       </c>
       <c r="V13" t="n">
-        <v>1011.546349808234</v>
+        <v>1412.556111024461</v>
       </c>
       <c r="W13" t="n">
-        <v>722.1291797712734</v>
+        <v>1123.1389409875</v>
       </c>
       <c r="X13" t="n">
-        <v>722.1291797712734</v>
+        <v>1123.1389409875</v>
       </c>
       <c r="Y13" t="n">
-        <v>722.1291797712734</v>
+        <v>902.3463618439703</v>
       </c>
     </row>
     <row r="14">
@@ -5252,7 +5252,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C14" t="n">
         <v>2005.253839749764</v>
@@ -5261,40 +5261,40 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E14" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F14" t="n">
-        <v>850.2139837551618</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G14" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H14" t="n">
-        <v>137.5579332089256</v>
+        <v>137.5579332089255</v>
       </c>
       <c r="I14" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J14" t="n">
-        <v>451.8458144277728</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K14" t="n">
-        <v>785.6651881176192</v>
+        <v>939.1634975427193</v>
       </c>
       <c r="L14" t="n">
-        <v>1650.184003770974</v>
+        <v>1803.682313196074</v>
       </c>
       <c r="M14" t="n">
-        <v>2183.715908442898</v>
+        <v>2337.214217867998</v>
       </c>
       <c r="N14" t="n">
-        <v>2730.49472550168</v>
+        <v>2883.99303492678</v>
       </c>
       <c r="O14" t="n">
-        <v>3610.459375831135</v>
+        <v>3763.957685256235</v>
       </c>
       <c r="P14" t="n">
-        <v>4260.556453353931</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q14" t="n">
         <v>4719.034655862919</v>
@@ -5309,19 +5309,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U14" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V14" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W14" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X14" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y14" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="15">
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>560.3589007221987</v>
+        <v>873.220281864028</v>
       </c>
       <c r="C16" t="n">
-        <v>391.4227177942918</v>
+        <v>704.2840989361212</v>
       </c>
       <c r="D16" t="n">
-        <v>340.7998052124422</v>
+        <v>704.2840989361212</v>
       </c>
       <c r="E16" t="n">
-        <v>192.8867116300491</v>
+        <v>556.371005353728</v>
       </c>
       <c r="F16" t="n">
-        <v>192.8867116300491</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="G16" t="n">
-        <v>192.8867116300491</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H16" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I16" t="n">
         <v>95.56103444839442</v>
@@ -5437,10 +5437,10 @@
         <v>140.68366689533</v>
       </c>
       <c r="K16" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442061</v>
       </c>
       <c r="L16" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927022</v>
       </c>
       <c r="M16" t="n">
         <v>1005.387693892251</v>
@@ -5464,22 +5464,22 @@
         <v>1956.343466104703</v>
       </c>
       <c r="T16" t="n">
-        <v>1734.576850674229</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="U16" t="n">
-        <v>1445.473983799873</v>
+        <v>1826.959955835133</v>
       </c>
       <c r="V16" t="n">
-        <v>1190.789495593986</v>
+        <v>1572.275467629246</v>
       </c>
       <c r="W16" t="n">
-        <v>1190.789495593986</v>
+        <v>1282.858297592285</v>
       </c>
       <c r="X16" t="n">
-        <v>962.7999446959685</v>
+        <v>1054.868746694268</v>
       </c>
       <c r="Y16" t="n">
-        <v>742.0073655524384</v>
+        <v>1054.868746694268</v>
       </c>
     </row>
     <row r="17">
@@ -5495,13 +5495,13 @@
         <v>2005.253839749765</v>
       </c>
       <c r="D17" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E17" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F17" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551632</v>
       </c>
       <c r="G17" t="n">
         <v>435.1415336001585</v>
@@ -5516,22 +5516,22 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K17" t="n">
-        <v>939.1634975427193</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L17" t="n">
-        <v>1518.899775139038</v>
+        <v>1069.293752345675</v>
       </c>
       <c r="M17" t="n">
-        <v>2497.450077968866</v>
+        <v>2047.844055175503</v>
       </c>
       <c r="N17" t="n">
-        <v>3044.228895027648</v>
+        <v>3027.59632740215</v>
       </c>
       <c r="O17" t="n">
-        <v>3547.201365906985</v>
+        <v>3907.560977731604</v>
       </c>
       <c r="P17" t="n">
-        <v>4260.556453353931</v>
+        <v>4302.335344088782</v>
       </c>
       <c r="Q17" t="n">
         <v>4719.034655862919</v>
@@ -5568,25 +5568,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>970.5927724973187</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C18" t="n">
-        <v>796.1397432161917</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D18" t="n">
-        <v>647.2053335549405</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E18" t="n">
-        <v>487.967878549485</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F18" t="n">
-        <v>341.43332057637</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G18" t="n">
-        <v>205.0702204089881</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H18" t="n">
-        <v>114.5683260468556</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I18" t="n">
         <v>95.56103444839442</v>
@@ -5616,28 +5616,28 @@
         <v>2594.102460549551</v>
       </c>
       <c r="R18" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S18" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T18" t="n">
-        <v>2271.877220313402</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U18" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V18" t="n">
-        <v>1808.657265216075</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W18" t="n">
-        <v>1554.419908487873</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X18" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y18" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="19">
@@ -5647,37 +5647,37 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>805.0466682503443</v>
+        <v>410.7144041584437</v>
       </c>
       <c r="C19" t="n">
-        <v>636.1104853224374</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="D19" t="n">
-        <v>485.9938459101016</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="E19" t="n">
-        <v>485.9938459101016</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="F19" t="n">
-        <v>339.1038984121913</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="G19" t="n">
-        <v>339.1038984121913</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H19" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I19" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J19" t="n">
-        <v>140.6836668953299</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K19" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442061</v>
       </c>
       <c r="L19" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927022</v>
       </c>
       <c r="M19" t="n">
         <v>1005.387693892251</v>
@@ -5692,31 +5692,31 @@
         <v>1878.733169952189</v>
       </c>
       <c r="Q19" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104705</v>
       </c>
       <c r="R19" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104705</v>
       </c>
       <c r="S19" t="n">
-        <v>1956.343466104703</v>
+        <v>1914.467674747669</v>
       </c>
       <c r="T19" t="n">
-        <v>1734.576850674229</v>
+        <v>1692.701059317195</v>
       </c>
       <c r="U19" t="n">
-        <v>1734.576850674229</v>
+        <v>1403.598192442839</v>
       </c>
       <c r="V19" t="n">
-        <v>1479.892362468342</v>
+        <v>1148.913704236952</v>
       </c>
       <c r="W19" t="n">
-        <v>1435.477263122131</v>
+        <v>859.4965341999912</v>
       </c>
       <c r="X19" t="n">
-        <v>1207.487712224114</v>
+        <v>631.5069833019738</v>
       </c>
       <c r="Y19" t="n">
-        <v>986.695133080584</v>
+        <v>410.7144041584437</v>
       </c>
     </row>
     <row r="20">
@@ -5726,22 +5726,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C20" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D20" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E20" t="n">
         <v>1261.199888544769</v>
       </c>
       <c r="F20" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551613</v>
       </c>
       <c r="G20" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001583</v>
       </c>
       <c r="H20" t="n">
         <v>137.5579332089257</v>
@@ -5753,28 +5753,28 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K20" t="n">
-        <v>939.1634975427194</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L20" t="n">
-        <v>1390.197710791128</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M20" t="n">
-        <v>1923.729615463053</v>
+        <v>2461.328657580449</v>
       </c>
       <c r="N20" t="n">
-        <v>2903.481887689699</v>
+        <v>3441.080929807095</v>
       </c>
       <c r="O20" t="n">
-        <v>3783.446538019154</v>
+        <v>4075.973927750059</v>
       </c>
       <c r="P20" t="n">
-        <v>4405.689038432983</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q20" t="n">
-        <v>4653.975400188665</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R20" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S20" t="n">
         <v>4667.761053946815</v>
@@ -5783,19 +5783,19 @@
         <v>4461.783306331037</v>
       </c>
       <c r="U20" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V20" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W20" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X20" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y20" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="21">
@@ -5805,22 +5805,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C21" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D21" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E21" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F21" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G21" t="n">
-        <v>205.0702204089894</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H21" t="n">
         <v>114.5683260468565</v>
@@ -5829,10 +5829,10 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J21" t="n">
-        <v>189.2383039390116</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K21" t="n">
-        <v>427.5025029193585</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L21" t="n">
         <v>794.200663232024</v>
@@ -5844,13 +5844,13 @@
         <v>1715.000032008794</v>
       </c>
       <c r="O21" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P21" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q21" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549551</v>
       </c>
       <c r="R21" t="n">
         <v>2593.958107142068</v>
@@ -5871,10 +5871,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X21" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y21" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="22">
@@ -5884,19 +5884,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>876.4469737784534</v>
+        <v>557.6043516563539</v>
       </c>
       <c r="C22" t="n">
-        <v>707.5107908505465</v>
+        <v>388.668168728447</v>
       </c>
       <c r="D22" t="n">
-        <v>557.3941514382108</v>
+        <v>388.668168728447</v>
       </c>
       <c r="E22" t="n">
-        <v>409.4810578558177</v>
+        <v>388.668168728447</v>
       </c>
       <c r="F22" t="n">
-        <v>409.4810578558177</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="G22" t="n">
         <v>241.7782212305366</v>
@@ -5908,7 +5908,7 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J22" t="n">
-        <v>140.6836668953299</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K22" t="n">
         <v>344.6708498442063</v>
@@ -5926,34 +5926,34 @@
         <v>1646.125669518529</v>
       </c>
       <c r="P22" t="n">
-        <v>1878.733169952189</v>
+        <v>1878.733169952188</v>
       </c>
       <c r="Q22" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R22" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S22" t="n">
-        <v>1764.65758193153</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="T22" t="n">
-        <v>1764.65758193153</v>
+        <v>1734.576850674229</v>
       </c>
       <c r="U22" t="n">
-        <v>1764.65758193153</v>
+        <v>1445.473983799873</v>
       </c>
       <c r="V22" t="n">
-        <v>1764.65758193153</v>
+        <v>1190.789495593986</v>
       </c>
       <c r="W22" t="n">
-        <v>1475.240411894569</v>
+        <v>1188.034946528141</v>
       </c>
       <c r="X22" t="n">
-        <v>1278.888017752223</v>
+        <v>960.0453956301237</v>
       </c>
       <c r="Y22" t="n">
-        <v>1058.095438608693</v>
+        <v>739.2528164865936</v>
       </c>
     </row>
     <row r="23">
@@ -5966,67 +5966,67 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C23" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D23" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E23" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F23" t="n">
-        <v>850.2139837551626</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G23" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H23" t="n">
-        <v>137.5579332089256</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I23" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J23" t="n">
-        <v>284.4401654074201</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K23" t="n">
-        <v>618.2595390972667</v>
+        <v>939.1634975427193</v>
       </c>
       <c r="L23" t="n">
-        <v>1482.778354750622</v>
+        <v>1390.197710791128</v>
       </c>
       <c r="M23" t="n">
-        <v>2016.310259422547</v>
+        <v>2368.748013620956</v>
       </c>
       <c r="N23" t="n">
-        <v>2996.062531649193</v>
+        <v>3348.500285847603</v>
       </c>
       <c r="O23" t="n">
-        <v>3692.333950986038</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P23" t="n">
-        <v>4405.689038432984</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q23" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R23" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S23" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T23" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U23" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V23" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W23" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X23" t="n">
         <v>3150.95552873011</v>
@@ -6042,52 +6042,52 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C24" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D24" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E24" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F24" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G24" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H24" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I24" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J24" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K24" t="n">
-        <v>427.5025029193591</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L24" t="n">
-        <v>794.2006632320247</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M24" t="n">
-        <v>1241.476988454341</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N24" t="n">
-        <v>1715.000032008796</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O24" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P24" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q24" t="n">
-        <v>2594.102460549554</v>
+        <v>2594.102460549551</v>
       </c>
       <c r="R24" t="n">
         <v>2593.958107142068</v>
@@ -6099,7 +6099,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U24" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V24" t="n">
         <v>1808.657265216076</v>
@@ -6108,10 +6108,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X24" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y24" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="25">
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>873.220281864028</v>
+        <v>653.7478932037362</v>
       </c>
       <c r="C25" t="n">
-        <v>704.2840989361212</v>
+        <v>561.2936040684043</v>
       </c>
       <c r="D25" t="n">
-        <v>704.2840989361212</v>
+        <v>411.1769646560686</v>
       </c>
       <c r="E25" t="n">
-        <v>556.371005353728</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="F25" t="n">
-        <v>409.4810578558177</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G25" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H25" t="n">
         <v>95.56103444839442</v>
@@ -6145,52 +6145,52 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J25" t="n">
-        <v>140.6836668953301</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K25" t="n">
-        <v>344.6708498442065</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L25" t="n">
-        <v>661.2306482927029</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M25" t="n">
-        <v>1005.387693892252</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N25" t="n">
-        <v>1346.796070598117</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O25" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P25" t="n">
-        <v>1878.73316995219</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q25" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R25" t="n">
-        <v>1866.513008862232</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S25" t="n">
-        <v>1674.827124689059</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T25" t="n">
-        <v>1674.827124689059</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U25" t="n">
-        <v>1537.542785798172</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="V25" t="n">
-        <v>1282.858297592285</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="W25" t="n">
-        <v>1282.858297592285</v>
+        <v>874.5404723472664</v>
       </c>
       <c r="X25" t="n">
-        <v>1054.868746694268</v>
+        <v>874.5404723472664</v>
       </c>
       <c r="Y25" t="n">
-        <v>1054.868746694268</v>
+        <v>653.7478932037362</v>
       </c>
     </row>
     <row r="26">
@@ -6212,40 +6212,40 @@
         <v>1261.19988854477</v>
       </c>
       <c r="F26" t="n">
-        <v>850.2139837551625</v>
+        <v>850.2139837551618</v>
       </c>
       <c r="G26" t="n">
-        <v>435.1415336001589</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H26" t="n">
-        <v>137.5579332089261</v>
+        <v>137.5579332089256</v>
       </c>
       <c r="I26" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J26" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K26" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563072</v>
       </c>
       <c r="L26" t="n">
-        <v>1460.488316778687</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M26" t="n">
-        <v>2439.038619608516</v>
+        <v>2091.135264483405</v>
       </c>
       <c r="N26" t="n">
-        <v>2985.817436667298</v>
+        <v>2637.914081542187</v>
       </c>
       <c r="O26" t="n">
-        <v>3865.782086996753</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P26" t="n">
-        <v>4260.556453353931</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q26" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R26" t="n">
         <v>4778.051722419721</v>
@@ -6279,25 +6279,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>970.5927724973199</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C27" t="n">
-        <v>796.1397432161929</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D27" t="n">
-        <v>647.2053335549417</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E27" t="n">
-        <v>487.9678785494862</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F27" t="n">
-        <v>341.4333205763712</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G27" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089888</v>
       </c>
       <c r="H27" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468563</v>
       </c>
       <c r="I27" t="n">
         <v>95.56103444839442</v>
@@ -6306,10 +6306,10 @@
         <v>189.2383039390117</v>
       </c>
       <c r="K27" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L27" t="n">
-        <v>794.2006632320245</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M27" t="n">
         <v>1241.47698845434</v>
@@ -6321,34 +6321,34 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P27" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q27" t="n">
-        <v>2594.102460549553</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R27" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S27" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T27" t="n">
-        <v>2271.877220313404</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U27" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V27" t="n">
         <v>1808.657265216076</v>
       </c>
       <c r="W27" t="n">
-        <v>1554.419908487875</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X27" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y27" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="28">
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>300.0484256555948</v>
+        <v>410.1538185715858</v>
       </c>
       <c r="C28" t="n">
-        <v>131.1122427276878</v>
+        <v>410.1538185715858</v>
       </c>
       <c r="D28" t="n">
-        <v>131.1122427276878</v>
+        <v>410.1538185715858</v>
       </c>
       <c r="E28" t="n">
-        <v>131.1122427276878</v>
+        <v>410.1538185715858</v>
       </c>
       <c r="F28" t="n">
-        <v>131.1122427276878</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G28" t="n">
-        <v>131.1122427276878</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H28" t="n">
         <v>95.56103444839442</v>
@@ -6388,19 +6388,19 @@
         <v>344.6708498442063</v>
       </c>
       <c r="L28" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927023</v>
       </c>
       <c r="M28" t="n">
         <v>1005.387693892251</v>
       </c>
       <c r="N28" t="n">
-        <v>1346.796070598116</v>
+        <v>1346.796070598115</v>
       </c>
       <c r="O28" t="n">
         <v>1646.125669518529</v>
       </c>
       <c r="P28" t="n">
-        <v>1878.733169952189</v>
+        <v>1878.733169952188</v>
       </c>
       <c r="Q28" t="n">
         <v>1956.343466104703</v>
@@ -6409,25 +6409,25 @@
         <v>1956.343466104703</v>
       </c>
       <c r="S28" t="n">
-        <v>1764.65758193153</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="T28" t="n">
-        <v>1542.890966501056</v>
+        <v>1734.576850674229</v>
       </c>
       <c r="U28" t="n">
-        <v>1253.788099626699</v>
+        <v>1445.473983799873</v>
       </c>
       <c r="V28" t="n">
-        <v>999.1036114208125</v>
+        <v>1190.789495593986</v>
       </c>
       <c r="W28" t="n">
-        <v>709.6864413838518</v>
+        <v>901.3723255570253</v>
       </c>
       <c r="X28" t="n">
-        <v>481.6968904858345</v>
+        <v>673.382774659008</v>
       </c>
       <c r="Y28" t="n">
-        <v>481.6968904858345</v>
+        <v>452.5901955154778</v>
       </c>
     </row>
     <row r="29">
@@ -6464,22 +6464,22 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K29" t="n">
-        <v>722.4071781934688</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L29" t="n">
-        <v>1586.925993846824</v>
+        <v>1803.682313196074</v>
       </c>
       <c r="M29" t="n">
-        <v>2120.457898518748</v>
+        <v>2337.214217867999</v>
       </c>
       <c r="N29" t="n">
-        <v>2667.236715577531</v>
+        <v>2883.993034926781</v>
       </c>
       <c r="O29" t="n">
-        <v>3547.201365906985</v>
+        <v>3757.393206660291</v>
       </c>
       <c r="P29" t="n">
-        <v>4260.556453353931</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q29" t="n">
         <v>4719.034655862919</v>
@@ -6500,7 +6500,7 @@
         <v>3877.189942261304</v>
       </c>
       <c r="W29" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X29" t="n">
         <v>3150.95552873011</v>
@@ -6516,19 +6516,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C30" t="n">
-        <v>796.1397432161928</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D30" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E30" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F30" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G30" t="n">
         <v>205.0702204089889</v>
@@ -6540,10 +6540,10 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J30" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390115</v>
       </c>
       <c r="K30" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193587</v>
       </c>
       <c r="L30" t="n">
         <v>794.2006632320242</v>
@@ -6558,22 +6558,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P30" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q30" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R30" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S30" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T30" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U30" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V30" t="n">
         <v>1808.657265216076</v>
@@ -6582,10 +6582,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X30" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y30" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="31">
@@ -6595,16 +6595,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>425.7583423057197</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C31" t="n">
-        <v>256.8221593778128</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D31" t="n">
-        <v>242.4509819463048</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E31" t="n">
-        <v>242.4509819463048</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F31" t="n">
         <v>95.56103444839442</v>
@@ -6625,10 +6625,10 @@
         <v>344.6708498442064</v>
       </c>
       <c r="L31" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927027</v>
       </c>
       <c r="M31" t="n">
-        <v>1005.387693892251</v>
+        <v>1005.387693892252</v>
       </c>
       <c r="N31" t="n">
         <v>1346.796070598116</v>
@@ -6643,28 +6643,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R31" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S31" t="n">
-        <v>1674.827124689058</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T31" t="n">
-        <v>1453.060509258584</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U31" t="n">
-        <v>1163.957642384228</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V31" t="n">
-        <v>1163.957642384228</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W31" t="n">
-        <v>874.5404723472672</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X31" t="n">
-        <v>646.5509214492498</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y31" t="n">
-        <v>425.7583423057197</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="32">
@@ -6692,25 +6692,25 @@
         <v>435.1415336001592</v>
       </c>
       <c r="H32" t="n">
-        <v>137.5579332089264</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I32" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J32" t="n">
-        <v>451.845814427773</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K32" t="n">
-        <v>1106.569146563073</v>
+        <v>1070.832524924162</v>
       </c>
       <c r="L32" t="n">
-        <v>1557.603359811481</v>
+        <v>1521.866738172571</v>
       </c>
       <c r="M32" t="n">
-        <v>2091.135264483406</v>
+        <v>2055.398642844495</v>
       </c>
       <c r="N32" t="n">
-        <v>2637.914081542188</v>
+        <v>2602.177459903277</v>
       </c>
       <c r="O32" t="n">
         <v>3482.142110232732</v>
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>970.5927724973199</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C33" t="n">
-        <v>796.1397432161929</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D33" t="n">
-        <v>647.2053335549417</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E33" t="n">
-        <v>487.9678785494862</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F33" t="n">
-        <v>341.4333205763712</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G33" t="n">
-        <v>205.0702204089893</v>
+        <v>205.0702204089888</v>
       </c>
       <c r="H33" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468563</v>
       </c>
       <c r="I33" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J33" t="n">
-        <v>189.2383039390115</v>
+        <v>189.2383039390116</v>
       </c>
       <c r="K33" t="n">
-        <v>427.5025029193587</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L33" t="n">
-        <v>794.2006632320238</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M33" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N33" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O33" t="n">
         <v>2125.96131142685</v>
       </c>
       <c r="P33" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q33" t="n">
-        <v>2594.102460549553</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R33" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S33" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T33" t="n">
-        <v>2271.877220313404</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U33" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V33" t="n">
         <v>1808.657265216076</v>
       </c>
       <c r="W33" t="n">
-        <v>1554.419908487875</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X33" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y33" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="34">
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>264.4972173763014</v>
+        <v>343.0033510423849</v>
       </c>
       <c r="C34" t="n">
-        <v>95.56103444839442</v>
+        <v>343.0033510423849</v>
       </c>
       <c r="D34" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="E34" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="F34" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="G34" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="H34" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I34" t="n">
         <v>95.56103444839442</v>
@@ -6859,49 +6859,49 @@
         <v>140.68366689533</v>
       </c>
       <c r="K34" t="n">
-        <v>344.6708498442065</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L34" t="n">
-        <v>661.2306482927027</v>
+        <v>661.2306482927023</v>
       </c>
       <c r="M34" t="n">
-        <v>1005.387693892252</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N34" t="n">
-        <v>1346.796070598117</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O34" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P34" t="n">
-        <v>1878.733169952189</v>
+        <v>1878.733169952188</v>
       </c>
       <c r="Q34" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R34" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S34" t="n">
-        <v>1764.65758193153</v>
+        <v>1764.657581931529</v>
       </c>
       <c r="T34" t="n">
-        <v>1542.890966501056</v>
+        <v>1542.890966501055</v>
       </c>
       <c r="U34" t="n">
-        <v>1253.7880996267</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V34" t="n">
-        <v>999.103611420813</v>
+        <v>999.1036114208122</v>
       </c>
       <c r="W34" t="n">
-        <v>709.6864413838523</v>
+        <v>791.7854810839324</v>
       </c>
       <c r="X34" t="n">
-        <v>481.696890485835</v>
+        <v>563.795930185915</v>
       </c>
       <c r="Y34" t="n">
-        <v>446.1456822065411</v>
+        <v>343.0033510423849</v>
       </c>
     </row>
     <row r="35">
@@ -6914,19 +6914,19 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C35" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D35" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E35" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F35" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G35" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001589</v>
       </c>
       <c r="H35" t="n">
         <v>137.5579332089257</v>
@@ -6935,25 +6935,25 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J35" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K35" t="n">
-        <v>685.1208104866391</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L35" t="n">
-        <v>1549.639626139994</v>
+        <v>1898.858917622688</v>
       </c>
       <c r="M35" t="n">
-        <v>2528.189928969822</v>
+        <v>2432.390822294613</v>
       </c>
       <c r="N35" t="n">
-        <v>3507.942201196469</v>
+        <v>2979.169639353395</v>
       </c>
       <c r="O35" t="n">
-        <v>4010.914672075806</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P35" t="n">
-        <v>4405.689038432984</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q35" t="n">
         <v>4653.975400188666</v>
@@ -6990,34 +6990,34 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C36" t="n">
-        <v>796.1397432161924</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D36" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E36" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F36" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G36" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089888</v>
       </c>
       <c r="H36" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468563</v>
       </c>
       <c r="I36" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J36" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390116</v>
       </c>
       <c r="K36" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193585</v>
       </c>
       <c r="L36" t="n">
         <v>794.200663232024</v>
@@ -7026,7 +7026,7 @@
         <v>1241.47698845434</v>
       </c>
       <c r="N36" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O36" t="n">
         <v>2125.96131142685</v>
@@ -7038,16 +7038,16 @@
         <v>2594.102460549552</v>
       </c>
       <c r="R36" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S36" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T36" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U36" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V36" t="n">
         <v>1808.657265216076</v>
@@ -7069,19 +7069,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>506.501398915396</v>
+        <v>96.15678466617818</v>
       </c>
       <c r="C37" t="n">
-        <v>388.2302264612122</v>
+        <v>96.15678466617818</v>
       </c>
       <c r="D37" t="n">
-        <v>388.2302264612122</v>
+        <v>96.15678466617818</v>
       </c>
       <c r="E37" t="n">
-        <v>241.3840574125619</v>
+        <v>96.15678466617818</v>
       </c>
       <c r="F37" t="n">
-        <v>95.56103444839442</v>
+        <v>96.15678466617818</v>
       </c>
       <c r="G37" t="n">
         <v>95.56103444839442</v>
@@ -7096,7 +7096,7 @@
         <v>141.7293596308513</v>
       </c>
       <c r="K37" t="n">
-        <v>346.762235315249</v>
+        <v>346.7622353152491</v>
       </c>
       <c r="L37" t="n">
         <v>664.3677264992665</v>
@@ -7120,25 +7120,25 @@
         <v>1964.709007988874</v>
       </c>
       <c r="S37" t="n">
-        <v>1964.709007988874</v>
+        <v>1774.090048349444</v>
       </c>
       <c r="T37" t="n">
-        <v>1744.009317092143</v>
+        <v>1553.390357452712</v>
       </c>
       <c r="U37" t="n">
-        <v>1455.973374751529</v>
+        <v>1265.354415112099</v>
       </c>
       <c r="V37" t="n">
-        <v>1202.355811079385</v>
+        <v>1011.736851439955</v>
       </c>
       <c r="W37" t="n">
-        <v>914.0055655761673</v>
+        <v>723.3866059367367</v>
       </c>
       <c r="X37" t="n">
-        <v>687.0829392118928</v>
+        <v>496.4639795724622</v>
       </c>
       <c r="Y37" t="n">
-        <v>687.0829392118928</v>
+        <v>276.7383249626751</v>
       </c>
     </row>
     <row r="38">
@@ -7163,37 +7163,37 @@
         <v>850.2139837551624</v>
       </c>
       <c r="G38" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001589</v>
       </c>
       <c r="H38" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089261</v>
       </c>
       <c r="I38" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J38" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K38" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563072</v>
       </c>
       <c r="L38" t="n">
-        <v>1482.778354750621</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M38" t="n">
-        <v>2461.32865758045</v>
+        <v>2091.135264483405</v>
       </c>
       <c r="N38" t="n">
-        <v>3441.080929807096</v>
+        <v>2637.914081542187</v>
       </c>
       <c r="O38" t="n">
-        <v>4075.973927750058</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P38" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q38" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R38" t="n">
         <v>4778.051722419721</v>
@@ -7227,22 +7227,22 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C39" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D39" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E39" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F39" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G39" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H39" t="n">
         <v>114.5683260468565</v>
@@ -7251,13 +7251,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J39" t="n">
-        <v>189.2383039390115</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K39" t="n">
-        <v>427.5025029193587</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L39" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M39" t="n">
         <v>1241.47698845434</v>
@@ -7269,22 +7269,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P39" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q39" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R39" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S39" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T39" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U39" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V39" t="n">
         <v>1808.657265216076</v>
@@ -7293,10 +7293,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X39" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y39" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="40">
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>788.515167821505</v>
+        <v>788.5151678215052</v>
       </c>
       <c r="C40" t="n">
-        <v>667.0286178416713</v>
+        <v>667.0286178416716</v>
       </c>
       <c r="D40" t="n">
-        <v>564.361611377409</v>
+        <v>564.3616113774092</v>
       </c>
       <c r="E40" t="n">
-        <v>463.8981507430892</v>
+        <v>463.8981507430893</v>
       </c>
       <c r="F40" t="n">
         <v>364.4578361932523</v>
       </c>
       <c r="G40" t="n">
-        <v>244.2046325160445</v>
+        <v>244.2046325160447</v>
       </c>
       <c r="H40" t="n">
         <v>145.4370786819758</v>
@@ -7336,7 +7336,7 @@
         <v>437.6816203490196</v>
       </c>
       <c r="L40" t="n">
-        <v>800.7468040499225</v>
+        <v>800.7468040499223</v>
       </c>
       <c r="M40" t="n">
         <v>1191.409234901878</v>
@@ -7369,13 +7369,13 @@
         <v>1518.56440093796</v>
       </c>
       <c r="W40" t="n">
-        <v>1276.596863849072</v>
+        <v>1276.596863849073</v>
       </c>
       <c r="X40" t="n">
-        <v>1096.056945899128</v>
+        <v>1096.056945899129</v>
       </c>
       <c r="Y40" t="n">
-        <v>922.7139997036714</v>
+        <v>922.7139997036716</v>
       </c>
     </row>
     <row r="41">
@@ -7388,22 +7388,22 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C41" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D41" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E41" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F41" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G41" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001589</v>
       </c>
       <c r="H41" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089261</v>
       </c>
       <c r="I41" t="n">
         <v>95.56103444839442</v>
@@ -7479,10 +7479,10 @@
         <v>341.4333205763708</v>
       </c>
       <c r="G42" t="n">
-        <v>205.0702204089893</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H42" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I42" t="n">
         <v>95.56103444839442</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>788.5151678215053</v>
+        <v>788.515167821505</v>
       </c>
       <c r="C43" t="n">
-        <v>667.0286178416717</v>
+        <v>667.0286178416713</v>
       </c>
       <c r="D43" t="n">
-        <v>564.3616113774093</v>
+        <v>564.361611377409</v>
       </c>
       <c r="E43" t="n">
-        <v>463.8981507430895</v>
+        <v>463.8981507430892</v>
       </c>
       <c r="F43" t="n">
-        <v>364.4578361932524</v>
+        <v>364.4578361932523</v>
       </c>
       <c r="G43" t="n">
-        <v>244.2046325160447</v>
+        <v>244.2046325160446</v>
       </c>
       <c r="H43" t="n">
-        <v>145.4370786819758</v>
+        <v>145.4370786819757</v>
       </c>
       <c r="I43" t="n">
         <v>95.56103444839442</v>
@@ -7588,7 +7588,7 @@
         <v>2204.270866719035</v>
       </c>
       <c r="Q43" t="n">
-        <v>2328.386548123956</v>
+        <v>2328.386548123957</v>
       </c>
       <c r="R43" t="n">
         <v>2286.005723829557</v>
@@ -7600,19 +7600,19 @@
         <v>1967.452490122056</v>
       </c>
       <c r="U43" t="n">
-        <v>1725.799256195774</v>
+        <v>1725.799256195773</v>
       </c>
       <c r="V43" t="n">
-        <v>1518.56440093796</v>
+        <v>1518.564400937959</v>
       </c>
       <c r="W43" t="n">
-        <v>1276.596863849073</v>
+        <v>1276.596863849072</v>
       </c>
       <c r="X43" t="n">
-        <v>1096.056945899129</v>
+        <v>1096.056945899128</v>
       </c>
       <c r="Y43" t="n">
-        <v>922.7139997036718</v>
+        <v>922.7139997036713</v>
       </c>
     </row>
     <row r="44">
@@ -7622,22 +7622,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C44" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D44" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E44" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F44" t="n">
-        <v>850.2139837551625</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G44" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H44" t="n">
         <v>137.5579332089257</v>
@@ -7646,28 +7646,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J44" t="n">
-        <v>451.8458144277729</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K44" t="n">
-        <v>1106.569146563073</v>
+        <v>1106.569146563072</v>
       </c>
       <c r="L44" t="n">
-        <v>1586.925993846824</v>
+        <v>1898.858917622689</v>
       </c>
       <c r="M44" t="n">
-        <v>2120.457898518748</v>
+        <v>2432.390822294613</v>
       </c>
       <c r="N44" t="n">
-        <v>2667.236715577531</v>
+        <v>2979.169639353395</v>
       </c>
       <c r="O44" t="n">
-        <v>3547.201365906985</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P44" t="n">
-        <v>4260.556453353931</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q44" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R44" t="n">
         <v>4778.051722419721</v>
@@ -7679,19 +7679,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U44" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V44" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W44" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X44" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y44" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="45">
@@ -7716,7 +7716,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G45" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H45" t="n">
         <v>114.5683260468565</v>
@@ -7725,13 +7725,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J45" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390123</v>
       </c>
       <c r="K45" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193594</v>
       </c>
       <c r="L45" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320247</v>
       </c>
       <c r="M45" t="n">
         <v>1241.47698845434</v>
@@ -7780,37 +7780,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>788.5151678215053</v>
+        <v>788.5151678215052</v>
       </c>
       <c r="C46" t="n">
-        <v>667.0286178416717</v>
+        <v>667.0286178416716</v>
       </c>
       <c r="D46" t="n">
-        <v>564.3616113774093</v>
+        <v>564.3616113774092</v>
       </c>
       <c r="E46" t="n">
-        <v>463.8981507430895</v>
+        <v>463.8981507430894</v>
       </c>
       <c r="F46" t="n">
-        <v>364.4578361932524</v>
+        <v>364.4578361932523</v>
       </c>
       <c r="G46" t="n">
-        <v>244.2046325160447</v>
+        <v>244.2046325160446</v>
       </c>
       <c r="H46" t="n">
-        <v>145.4370786819758</v>
+        <v>145.4370786819757</v>
       </c>
       <c r="I46" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J46" t="n">
-        <v>187.1890521477366</v>
+        <v>187.1890521477364</v>
       </c>
       <c r="K46" t="n">
-        <v>437.6816203490196</v>
+        <v>437.6816203490195</v>
       </c>
       <c r="L46" t="n">
-        <v>800.7468040499224</v>
+        <v>800.746804049922</v>
       </c>
       <c r="M46" t="n">
         <v>1191.409234901878</v>
@@ -7831,25 +7831,25 @@
         <v>2286.005723829558</v>
       </c>
       <c r="S46" t="n">
-        <v>2141.769472604458</v>
+        <v>2141.769472604457</v>
       </c>
       <c r="T46" t="n">
         <v>1967.452490122057</v>
       </c>
       <c r="U46" t="n">
-        <v>1725.799256195774</v>
+        <v>1725.799256195773</v>
       </c>
       <c r="V46" t="n">
         <v>1518.56440093796</v>
       </c>
       <c r="W46" t="n">
-        <v>1276.596863849073</v>
+        <v>1276.596863849072</v>
       </c>
       <c r="X46" t="n">
-        <v>1096.056945899129</v>
+        <v>1096.056945899128</v>
       </c>
       <c r="Y46" t="n">
-        <v>922.7139997036718</v>
+        <v>922.7139997036716</v>
       </c>
     </row>
   </sheetData>
@@ -8055,10 +8055,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270193</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719077</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>166.6588033951776</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8298,7 +8298,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>251.4045252050821</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
         <v>465.7050637499999</v>
@@ -8310,7 +8310,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>199.02694854156</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8547,7 +8547,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>275.0442842992669</v>
+        <v>199.02694854156</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -8693,22 +8693,22 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>315.1679217109337</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O11" t="n">
-        <v>380.8001812627454</v>
+        <v>14.45386895940396</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -8763,7 +8763,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>9.059419880941277e-13</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -8924,10 +8924,10 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
         <v>417.6612145504504</v>
@@ -8942,10 +8942,10 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P14" t="n">
-        <v>257.9017284501189</v>
+        <v>315.1679217109336</v>
       </c>
       <c r="Q14" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -9164,25 +9164,25 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>130.0020851999087</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P17" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>212.3149906599047</v>
+        <v>170.1140909277318</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -9237,7 +9237,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>9.059419880941277e-13</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -9264,7 +9264,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9401,28 +9401,28 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N20" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O20" t="n">
-        <v>380.8001812627454</v>
+        <v>133.253057640027</v>
       </c>
       <c r="P20" t="n">
-        <v>229.7657919764146</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9501,7 +9501,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9638,28 +9638,28 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L23" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N23" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O23" t="n">
-        <v>195.2514630883909</v>
+        <v>226.7688596193116</v>
       </c>
       <c r="P23" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9738,7 +9738,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9872,31 +9872,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
-        <v>395.1460246798101</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>380.8001812627454</v>
+        <v>344.7025836476853</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10112,7 +10112,7 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>105.1996354507095</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
         <v>417.6612145504504</v>
@@ -10124,13 +10124,13 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>380.8001812627454</v>
+        <v>374.169394802195</v>
       </c>
       <c r="P29" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -10349,7 +10349,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
-        <v>324.1454125711647</v>
+        <v>288.047814956104</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
@@ -10361,7 +10361,7 @@
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>344.7025836476831</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P32" t="n">
         <v>321.7987081714826</v>
@@ -10583,28 +10583,28 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>67.53663776704337</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
-        <v>417.6612145504504</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
         <v>65.71641987298243</v>
@@ -10820,31 +10820,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>133.2530576400255</v>
+        <v>344.7025836476853</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11300,7 +11300,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>29.61882225792135</v>
+        <v>344.7025836476847</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -11309,7 +11309,7 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
         <v>321.7987081714826</v>
@@ -11318,7 +11318,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23416,25 +23416,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>105.788991492593</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,13 +23461,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004729</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>12.31831100354762</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23656,22 +23656,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>98.49878956218127</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23704,22 +23704,22 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>158.1221630387384</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23887,19 +23887,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>166.0258082590282</v>
@@ -23908,7 +23908,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,19 +23938,19 @@
         <v>88.93215267004734</v>
       </c>
       <c r="S19" t="n">
-        <v>189.7690253314419</v>
+        <v>148.3119918879765</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>242.5520499838423</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24130,22 +24130,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,25 +24172,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>283.7959947614048</v>
       </c>
       <c r="X22" t="n">
-        <v>31.3207851881147</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24361,28 +24361,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>75.71707485464921</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
-        <v>96.35242040983806</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24415,22 +24415,22 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>150.3003427036352</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24598,10 +24598,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>137.8199670074841</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24610,16 +24610,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>109.5593187178203</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,10 +24646,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24667,7 +24667,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24835,19 +24835,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>134.3880073610195</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>166.0258082590282</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24892,10 +24892,10 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>16.14213605696614</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25072,13 +25072,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25093,7 +25093,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25135,13 +25135,13 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>81.27804930307946</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>183.3889571555938</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25312,19 +25312,19 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>49.1021050805802</v>
+        <v>166.1905658102224</v>
       </c>
       <c r="D37" t="n">
-        <v>147.5592177298069</v>
+        <v>147.559217729807</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>145.3777073581638</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>144.3647927345258</v>
       </c>
       <c r="G37" t="n">
-        <v>164.9695529706228</v>
+        <v>164.3797602550169</v>
       </c>
       <c r="H37" t="n">
         <v>143.6987596259154</v>
@@ -25357,10 +25357,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>87.87589738164192</v>
+        <v>87.87589738164193</v>
       </c>
       <c r="S37" t="n">
-        <v>188.7127700430365</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25378,7 +25378,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>217.5283980636894</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25831,7 +25831,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>-6.536993168992922e-13</v>
+        <v>-8.881784197001252e-13</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1049768.224295667</v>
+        <v>1049768.224295666</v>
       </c>
     </row>
     <row r="7">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1049768.224295666</v>
+        <v>1049768.224295667</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1049768.224295667</v>
+        <v>1049768.224295666</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>1049768.224295666</v>
+        <v>1049768.224295667</v>
       </c>
     </row>
     <row r="13">
@@ -26311,43 +26311,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>369468.7964389274</v>
+        <v>369468.7964389273</v>
       </c>
       <c r="C2" t="n">
         <v>369468.7964389274</v>
       </c>
       <c r="D2" t="n">
-        <v>369468.7964389273</v>
+        <v>369468.7964389274</v>
       </c>
       <c r="E2" t="n">
-        <v>357373.608198285</v>
+        <v>357373.6081982851</v>
       </c>
       <c r="F2" t="n">
         <v>357373.608198285</v>
       </c>
       <c r="G2" t="n">
+        <v>357373.6081982851</v>
+      </c>
+      <c r="H2" t="n">
+        <v>357373.608198285</v>
+      </c>
+      <c r="I2" t="n">
         <v>357373.6081982849</v>
       </c>
-      <c r="H2" t="n">
-        <v>357373.6081982846</v>
-      </c>
-      <c r="I2" t="n">
-        <v>357373.608198285</v>
-      </c>
       <c r="J2" t="n">
-        <v>357373.6081982848</v>
+        <v>357373.6081982849</v>
       </c>
       <c r="K2" t="n">
-        <v>357373.608198285</v>
+        <v>357373.6081982849</v>
       </c>
       <c r="L2" t="n">
         <v>357373.6081982849</v>
       </c>
       <c r="M2" t="n">
-        <v>357645.5734859469</v>
+        <v>357645.573485947</v>
       </c>
       <c r="N2" t="n">
-        <v>369468.7964389278</v>
+        <v>369468.7964389281</v>
       </c>
       <c r="O2" t="n">
         <v>369468.7964389278</v>
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>727377.4139934067</v>
+        <v>727377.4139934072</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,25 +26384,25 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>3.42310613632435e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925926</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>1.655303094594274e-10</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>130487.3190696688</v>
+        <v>130487.3190696693</v>
       </c>
       <c r="N3" t="n">
-        <v>36735.10506414986</v>
+        <v>36735.10506414975</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>1.540129233035259e-10</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26424,40 +26424,40 @@
         <v>183348.686857128</v>
       </c>
       <c r="E4" t="n">
+        <v>18148.49231918991</v>
+      </c>
+      <c r="F4" t="n">
         <v>18148.49231918996</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
+        <v>18148.49231918998</v>
+      </c>
+      <c r="H4" t="n">
+        <v>18148.49231918996</v>
+      </c>
+      <c r="I4" t="n">
         <v>18148.49231918995</v>
       </c>
-      <c r="G4" t="n">
+      <c r="J4" t="n">
+        <v>18148.49231918995</v>
+      </c>
+      <c r="K4" t="n">
+        <v>18148.49231918992</v>
+      </c>
+      <c r="L4" t="n">
         <v>18148.49231918994</v>
-      </c>
-      <c r="H4" t="n">
-        <v>18148.49231918993</v>
-      </c>
-      <c r="I4" t="n">
-        <v>18148.49231918991</v>
-      </c>
-      <c r="J4" t="n">
-        <v>18148.49231918994</v>
-      </c>
-      <c r="K4" t="n">
-        <v>18148.49231918991</v>
-      </c>
-      <c r="L4" t="n">
-        <v>18148.49231918993</v>
       </c>
       <c r="M4" t="n">
         <v>18496.05294811453</v>
       </c>
       <c r="N4" t="n">
-        <v>33605.65329740896</v>
+        <v>33605.65329740899</v>
       </c>
       <c r="O4" t="n">
-        <v>33605.65329740896</v>
+        <v>33605.65329740898</v>
       </c>
       <c r="P4" t="n">
-        <v>33605.65329740899</v>
+        <v>33605.65329740901</v>
       </c>
     </row>
     <row r="5">
@@ -26476,7 +26476,7 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371367</v>
       </c>
       <c r="F5" t="n">
         <v>96383.51825371364</v>
@@ -26485,19 +26485,19 @@
         <v>96383.51825371364</v>
       </c>
       <c r="H5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="I5" t="n">
-        <v>96383.51825371367</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="J5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="K5" t="n">
         <v>96383.51825371366</v>
       </c>
       <c r="L5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="M5" t="n">
         <v>96472.31657955461</v>
@@ -26519,46 +26519,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-486706.8476961545</v>
+        <v>-486706.8476961547</v>
       </c>
       <c r="C6" t="n">
         <v>103261.0315183899</v>
       </c>
       <c r="D6" t="n">
-        <v>103261.0315183898</v>
+        <v>103261.03151839</v>
       </c>
       <c r="E6" t="n">
-        <v>-484535.8163680253</v>
+        <v>-484603.0118582514</v>
       </c>
       <c r="F6" t="n">
-        <v>242841.5976253814</v>
+        <v>242774.4021351561</v>
       </c>
       <c r="G6" t="n">
-        <v>242841.5976253813</v>
+        <v>242774.4021351557</v>
       </c>
       <c r="H6" t="n">
-        <v>242841.597625381</v>
+        <v>242774.4021351556</v>
       </c>
       <c r="I6" t="n">
-        <v>242841.5976253811</v>
+        <v>242774.4021351555</v>
       </c>
       <c r="J6" t="n">
-        <v>66418.37843278864</v>
+        <v>66351.18294256258</v>
       </c>
       <c r="K6" t="n">
-        <v>242841.5976253814</v>
+        <v>242774.4021351553</v>
       </c>
       <c r="L6" t="n">
-        <v>242841.5976253813</v>
+        <v>242774.4021351557</v>
       </c>
       <c r="M6" t="n">
-        <v>112189.884888609</v>
+        <v>112124.2003166476</v>
       </c>
       <c r="N6" t="n">
-        <v>198795.3670632669</v>
+        <v>198795.3670632672</v>
       </c>
       <c r="O6" t="n">
-        <v>235530.4721274167</v>
+        <v>235530.4721274165</v>
       </c>
       <c r="P6" t="n">
         <v>235530.4721274168</v>
@@ -26716,16 +26716,16 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>1.056255288405412</v>
+        <v>1.056255288405406</v>
       </c>
       <c r="N2" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="O2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="P2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="3">
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
@@ -26744,7 +26744,7 @@
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="F3" t="n">
         <v>1089.776700593298</v>
@@ -26756,7 +26756,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="I3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="J3" t="n">
         <v>1089.776700593298</v>
@@ -26765,7 +26765,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="L3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="M3" t="n">
         <v>1089.776700593298</v>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1194.51293060493</v>
@@ -26938,10 +26938,10 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>1.056255288405412</v>
+        <v>1.056255288405406</v>
       </c>
       <c r="N2" t="n">
-        <v>45.91888133018712</v>
+        <v>45.91888133018718</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>712.0330363762115</v>
+        <v>712.0330363762121</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26978,25 +26978,25 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
         <v>2.273736754432321e-13</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>520.2256578503748</v>
+        <v>520.2256578503747</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503748</v>
+        <v>520.2256578503747</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503748</v>
+        <v>520.2256578503747</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,10 +27379,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27391,13 +27391,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>132.1535265610512</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,13 +27424,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
@@ -27439,13 +27439,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>41.52432393661218</v>
       </c>
     </row>
     <row r="3">
@@ -27534,10 +27534,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>83.42215549076128</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27546,7 +27546,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
@@ -27582,19 +27582,19 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>74.7091424694386</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27622,7 +27622,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>342.7311428911777</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27631,7 +27631,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>192.0379889846834</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27661,7 +27661,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -27670,16 +27670,16 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27777,25 +27777,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>128.0571403890128</v>
+        <v>7.060634511642348</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,13 +27816,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
@@ -27853,25 +27853,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>87.32913021289909</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>243.8434339289657</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,25 +27901,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28017,22 +28017,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>139.6978092832526</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,7 +28053,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
@@ -28065,19 +28065,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>163.0715099677104</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28764,7 +28764,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>1.70530256582424e-12</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -29509,67 +29509,67 @@
         </is>
       </c>
       <c r="B29" t="n">
+        <v>0</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>0</v>
+      </c>
+      <c r="R29" t="n">
+        <v>0</v>
+      </c>
+      <c r="S29" t="n">
+        <v>0</v>
+      </c>
+      <c r="T29" t="n">
+        <v>0</v>
+      </c>
+      <c r="U29" t="n">
+        <v>0</v>
+      </c>
+      <c r="V29" t="n">
         <v>-5.684341886080801e-13</v>
-      </c>
-      <c r="C29" t="n">
-        <v>0</v>
-      </c>
-      <c r="D29" t="n">
-        <v>0</v>
-      </c>
-      <c r="E29" t="n">
-        <v>0</v>
-      </c>
-      <c r="F29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G29" t="n">
-        <v>0</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0</v>
-      </c>
-      <c r="L29" t="n">
-        <v>0</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="n">
-        <v>0</v>
-      </c>
-      <c r="O29" t="n">
-        <v>0</v>
-      </c>
-      <c r="P29" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>0</v>
-      </c>
-      <c r="R29" t="n">
-        <v>0</v>
-      </c>
-      <c r="S29" t="n">
-        <v>0</v>
-      </c>
-      <c r="T29" t="n">
-        <v>0</v>
-      </c>
-      <c r="U29" t="n">
-        <v>0</v>
-      </c>
-      <c r="V29" t="n">
-        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -29983,7 +29983,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>-5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -30001,7 +30001,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>-3.410605131648481e-13</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1.056255288405412</v>
+        <v>1.056255288405406</v>
       </c>
       <c r="C37" t="n">
-        <v>1.056255288405412</v>
+        <v>1.056255288405406</v>
       </c>
       <c r="D37" t="n">
-        <v>1.056255288405412</v>
+        <v>1.056255288405406</v>
       </c>
       <c r="E37" t="n">
-        <v>1.056255288405412</v>
+        <v>1.056255288405406</v>
       </c>
       <c r="F37" t="n">
-        <v>1.056255288405412</v>
+        <v>1.056255288405406</v>
       </c>
       <c r="G37" t="n">
-        <v>1.056255288405412</v>
+        <v>1.056255288405406</v>
       </c>
       <c r="H37" t="n">
-        <v>1.056255288405412</v>
+        <v>1.056255288405406</v>
       </c>
       <c r="I37" t="n">
-        <v>1.056255288405412</v>
+        <v>1.056255288405406</v>
       </c>
       <c r="J37" t="n">
-        <v>1.056255288405412</v>
+        <v>1.056255288405406</v>
       </c>
       <c r="K37" t="n">
-        <v>1.056255288405412</v>
+        <v>1.056255288405406</v>
       </c>
       <c r="L37" t="n">
-        <v>1.056255288405412</v>
+        <v>1.056255288405406</v>
       </c>
       <c r="M37" t="n">
-        <v>1.056255288405412</v>
+        <v>1.056255288405406</v>
       </c>
       <c r="N37" t="n">
-        <v>1.056255288405412</v>
+        <v>1.056255288405406</v>
       </c>
       <c r="O37" t="n">
-        <v>1.056255288405412</v>
+        <v>1.056255288405406</v>
       </c>
       <c r="P37" t="n">
-        <v>1.056255288405412</v>
+        <v>1.056255288405406</v>
       </c>
       <c r="Q37" t="n">
-        <v>1.056255288405412</v>
+        <v>1.056255288405406</v>
       </c>
       <c r="R37" t="n">
-        <v>1.056255288405412</v>
+        <v>1.056255288405406</v>
       </c>
       <c r="S37" t="n">
-        <v>1.056255288405412</v>
+        <v>1.056255288405406</v>
       </c>
       <c r="T37" t="n">
-        <v>1.056255288405412</v>
+        <v>1.056255288405406</v>
       </c>
       <c r="U37" t="n">
-        <v>1.056255288405412</v>
+        <v>1.056255288405406</v>
       </c>
       <c r="V37" t="n">
-        <v>1.056255288405412</v>
+        <v>1.056255288405406</v>
       </c>
       <c r="W37" t="n">
-        <v>1.056255288405412</v>
+        <v>1.056255288405406</v>
       </c>
       <c r="X37" t="n">
-        <v>1.056255288405412</v>
+        <v>1.056255288405406</v>
       </c>
       <c r="Y37" t="n">
-        <v>1.056255288405412</v>
+        <v>1.056255288405406</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C40" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D40" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E40" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F40" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G40" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H40" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I40" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="J40" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="K40" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="L40" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="M40" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="N40" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="O40" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="P40" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Q40" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="R40" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="S40" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T40" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U40" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V40" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W40" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X40" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y40" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="J43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="K43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="L43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="M43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="N43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="O43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="P43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Q43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="R43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="S43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="J46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="K46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="L46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="M46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="N46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="O46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="P46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Q46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="R46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="S46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
   </sheetData>
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31276,13 +31276,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31300,22 +31300,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31388,16 +31388,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31434,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,13 +31458,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
         <v>30.62819939701163</v>
@@ -31473,7 +31473,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31513,13 +31513,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31537,22 +31537,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31625,16 +31625,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,13 +31695,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
@@ -31710,7 +31710,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681597</v>
+        <v>4.3810118616816</v>
       </c>
       <c r="H11" t="n">
-        <v>44.86703772844667</v>
+        <v>44.8670377284467</v>
       </c>
       <c r="I11" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J11" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K11" t="n">
-        <v>557.2811376003809</v>
+        <v>557.2811376003813</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623196</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574997</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095027</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099062</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746416</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.0999946781689</v>
+        <v>473.0999946781692</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563568</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806955</v>
       </c>
       <c r="T11" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H12" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752261</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K12" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353159</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138798</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233477</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837927</v>
       </c>
       <c r="O12" t="n">
-        <v>557.7086478970249</v>
+        <v>557.7086478970252</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987488</v>
       </c>
       <c r="R12" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238318</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898503</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1542136840462216</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H13" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742022</v>
       </c>
       <c r="J13" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297391</v>
       </c>
       <c r="K13" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L13" t="n">
-        <v>292.1673469098819</v>
+        <v>292.1673469098821</v>
       </c>
       <c r="M13" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316434</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P13" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q13" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712214</v>
+        <v>88.3612387071222</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112299</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32461,43 +32461,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H20" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I20" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J20" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K20" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R20" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T20" t="n">
         <v>19.1778794245112</v>
@@ -32546,40 +32546,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I21" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K21" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O21" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U21" t="n">
         <v>0.1542136840462215</v>
@@ -32619,13 +32619,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H22" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I22" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J22" t="n">
         <v>138.937596729739</v>
@@ -32634,16 +32634,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L22" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M22" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P22" t="n">
         <v>237.6785118802169</v>
@@ -32652,16 +32652,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>4.3810118616816</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H23" t="n">
-        <v>44.8670377284467</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I23" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J23" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K23" t="n">
-        <v>557.2811376003813</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L23" t="n">
-        <v>691.3565293623196</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M23" t="n">
-        <v>769.2673490574997</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N23" t="n">
-        <v>781.7148990095027</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O23" t="n">
-        <v>738.1512123099062</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P23" t="n">
-        <v>629.9949819746416</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q23" t="n">
-        <v>473.0999946781692</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R23" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S23" t="n">
-        <v>99.83230779806955</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T23" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U23" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H24" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I24" t="n">
-        <v>80.70516131752261</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J24" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K24" t="n">
-        <v>378.5123470353159</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L24" t="n">
-        <v>508.9565619138798</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M24" t="n">
-        <v>593.9283018233477</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N24" t="n">
-        <v>609.6478166837927</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O24" t="n">
-        <v>557.7086478970252</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P24" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987488</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R24" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S24" t="n">
-        <v>43.53966346238318</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T24" t="n">
-        <v>9.448158375898503</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1542136840462216</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32856,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H25" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I25" t="n">
-        <v>59.09805451742022</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J25" t="n">
-        <v>138.9375967297391</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K25" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L25" t="n">
-        <v>292.1673469098821</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M25" t="n">
-        <v>308.0495024316434</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N25" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O25" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P25" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q25" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R25" t="n">
-        <v>88.3612387071222</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S25" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T25" t="n">
-        <v>8.396640152112299</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,43 +32935,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H26" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I26" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J26" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K26" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L26" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M26" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N26" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O26" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P26" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q26" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R26" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S26" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T26" t="n">
         <v>19.1778794245112</v>
@@ -33020,40 +33020,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I27" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J27" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K27" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L27" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M27" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N27" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O27" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P27" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S27" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T27" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U27" t="n">
         <v>0.1542136840462215</v>
@@ -33093,13 +33093,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H28" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I28" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J28" t="n">
         <v>138.937596729739</v>
@@ -33108,16 +33108,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L28" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M28" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N28" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O28" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P28" t="n">
         <v>237.6785118802169</v>
@@ -33126,16 +33126,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R28" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S28" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T28" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33409,49 +33409,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H32" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I32" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J32" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K32" t="n">
-        <v>557.2811376003812</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L32" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M32" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N32" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O32" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P32" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q32" t="n">
-        <v>473.0999946781691</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R32" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S32" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T32" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U32" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,46 +33488,46 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H33" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I33" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J33" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K33" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L33" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M33" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N33" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O33" t="n">
-        <v>557.7086478970251</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P33" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R33" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S33" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T33" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U33" t="n">
         <v>0.1542136840462215</v>
@@ -33567,49 +33567,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H34" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I34" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J34" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K34" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L34" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M34" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N34" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O34" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P34" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q34" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R34" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S34" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T34" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,43 +33646,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H35" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I35" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J35" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K35" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L35" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M35" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N35" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O35" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P35" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q35" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R35" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S35" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T35" t="n">
         <v>19.1778794245112</v>
@@ -33731,40 +33731,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I36" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J36" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K36" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L36" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M36" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N36" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O36" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P36" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S36" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T36" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U36" t="n">
         <v>0.1542136840462215</v>
@@ -33804,13 +33804,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H37" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I37" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J37" t="n">
         <v>138.937596729739</v>
@@ -33819,16 +33819,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L37" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M37" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N37" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O37" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P37" t="n">
         <v>237.6785118802169</v>
@@ -33837,16 +33837,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R37" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S37" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T37" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,43 +33883,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H38" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I38" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J38" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K38" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L38" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M38" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N38" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O38" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P38" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q38" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R38" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S38" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T38" t="n">
         <v>19.1778794245112</v>
@@ -33968,40 +33968,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I39" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J39" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K39" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L39" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M39" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N39" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837931</v>
       </c>
       <c r="O39" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P39" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S39" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T39" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U39" t="n">
         <v>0.1542136840462215</v>
@@ -34041,13 +34041,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H40" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I40" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J40" t="n">
         <v>138.937596729739</v>
@@ -34056,16 +34056,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L40" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M40" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N40" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O40" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P40" t="n">
         <v>237.6785118802169</v>
@@ -34074,16 +34074,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R40" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S40" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T40" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34357,43 +34357,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H44" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I44" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J44" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K44" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M44" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N44" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O44" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P44" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R44" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S44" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T44" t="n">
         <v>19.1778794245112</v>
@@ -34442,40 +34442,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I45" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026444</v>
       </c>
       <c r="K45" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O45" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R45" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S45" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T45" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U45" t="n">
         <v>0.1542136840462215</v>
@@ -34515,13 +34515,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H46" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I46" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J46" t="n">
         <v>138.937596729739</v>
@@ -34530,16 +34530,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L46" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M46" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N46" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O46" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P46" t="n">
         <v>237.6785118802169</v>
@@ -34548,16 +34548,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R46" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S46" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T46" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34778,7 +34778,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624589</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34787,16 +34787,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>130.3926104730626</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34948,10 +34948,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35012,13 +35012,13 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770689</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>289.2671274730086</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
         <v>529.4413268262938</v>
@@ -35027,10 +35027,10 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>220.2054057751875</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35094,7 +35094,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35109,7 +35109,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35185,10 +35185,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35264,10 +35264,10 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>296.2227415328944</v>
+        <v>220.2054057751875</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35331,7 +35331,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35346,7 +35346,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K11" t="n">
-        <v>661.3366991265651</v>
+        <v>661.3366991265655</v>
       </c>
       <c r="L11" t="n">
-        <v>873.2513289427824</v>
+        <v>455.5901143923324</v>
       </c>
       <c r="M11" t="n">
-        <v>854.0890375411602</v>
+        <v>988.4346493230595</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129113</v>
+        <v>989.6487598248959</v>
       </c>
       <c r="O11" t="n">
-        <v>888.8531821509644</v>
+        <v>522.5068698476234</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193721</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037194</v>
+        <v>463.1092954636244</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222489</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.62350453597705</v>
+        <v>94.62350453597719</v>
       </c>
       <c r="K12" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609569</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013294</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004594</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525808</v>
       </c>
       <c r="P12" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859627</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127273</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306628</v>
       </c>
       <c r="K13" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443197</v>
       </c>
       <c r="L13" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M13" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N13" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O13" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226399</v>
       </c>
       <c r="P13" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q13" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789371</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,10 +35644,10 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554004</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L14" t="n">
         <v>873.2513289427824</v>
@@ -35662,10 +35662,10 @@
         <v>888.8531821509644</v>
       </c>
       <c r="P14" t="n">
-        <v>656.6637146694906</v>
+        <v>713.9299079303053</v>
       </c>
       <c r="Q14" t="n">
-        <v>463.1092954636241</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R14" t="n">
         <v>59.61319854222472</v>
@@ -35884,25 +35884,25 @@
         <v>190.7870009687125</v>
       </c>
       <c r="K17" t="n">
-        <v>661.3366991265651</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L17" t="n">
-        <v>585.5921995922406</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M17" t="n">
         <v>988.434649323059</v>
       </c>
       <c r="N17" t="n">
-        <v>552.3018354129113</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O17" t="n">
-        <v>508.053000888219</v>
+        <v>888.8531821509644</v>
       </c>
       <c r="P17" t="n">
-        <v>720.5606943908542</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q17" t="n">
-        <v>463.1092954636241</v>
+        <v>420.9083957314513</v>
       </c>
       <c r="R17" t="n">
         <v>59.61319854222472</v>
@@ -36060,7 +36060,7 @@
         <v>234.9570711451104</v>
       </c>
       <c r="Q19" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789533</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K20" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302268</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N20" t="n">
-        <v>989.6487598248956</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O20" t="n">
-        <v>888.8531821509645</v>
+        <v>641.306058528246</v>
       </c>
       <c r="P20" t="n">
-        <v>628.5277781957865</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R20" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K21" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P21" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,10 +36276,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K22" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L22" t="n">
         <v>319.7573721701981</v>
@@ -36291,13 +36291,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O22" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P22" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q22" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,31 +36355,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K23" t="n">
-        <v>337.1912865554007</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L23" t="n">
-        <v>873.2513289427828</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M23" t="n">
-        <v>538.921115830227</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N23" t="n">
-        <v>989.6487598248959</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O23" t="n">
-        <v>703.3044639766104</v>
+        <v>734.8218605075306</v>
       </c>
       <c r="P23" t="n">
-        <v>720.5606943908547</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q23" t="n">
-        <v>250.7943048037197</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R23" t="n">
-        <v>125.3296184152073</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.62350453597719</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K24" t="n">
-        <v>240.6709080609569</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L24" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M24" t="n">
-        <v>451.7942679013294</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N24" t="n">
-        <v>478.3061046004594</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O24" t="n">
-        <v>415.1124034525808</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P24" t="n">
-        <v>313.6359509859627</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.2338966127273</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>45.57841661306628</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K25" t="n">
-        <v>206.0476595443197</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L25" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M25" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N25" t="n">
-        <v>344.8569461675403</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O25" t="n">
-        <v>302.3531302226399</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P25" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q25" t="n">
-        <v>78.39423853789371</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K26" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L26" t="n">
-        <v>850.7361390721422</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M26" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N26" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O26" t="n">
-        <v>888.8531821509645</v>
+        <v>852.7555845359043</v>
       </c>
       <c r="P26" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q26" t="n">
-        <v>463.1092954636242</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R26" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K27" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L27" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M27" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N27" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O27" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P27" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,10 +36750,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K28" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L28" t="n">
         <v>319.7573721701981</v>
@@ -36765,13 +36765,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O28" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P28" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q28" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,7 +36832,7 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K29" t="n">
-        <v>442.39092200611</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L29" t="n">
         <v>873.2513289427826</v>
@@ -36844,13 +36844,13 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O29" t="n">
-        <v>888.8531821509645</v>
+        <v>882.2223956904141</v>
       </c>
       <c r="P29" t="n">
         <v>720.5606943908545</v>
       </c>
       <c r="Q29" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R29" t="n">
         <v>59.61319854222478</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>359.8836161407864</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K32" t="n">
-        <v>661.3366991265653</v>
+        <v>625.2391015115044</v>
       </c>
       <c r="L32" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M32" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N32" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O32" t="n">
-        <v>852.7555845359025</v>
+        <v>888.8531821509644</v>
       </c>
       <c r="P32" t="n">
-        <v>720.5606943908547</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q32" t="n">
-        <v>463.1092954636243</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R32" t="n">
-        <v>125.3296184152073</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,28 +37145,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>94.62350453597716</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K33" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L33" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M33" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N33" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O33" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P33" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>45.57841661306625</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K34" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L34" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M34" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N34" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O34" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P34" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q34" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,28 +37303,28 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>190.7870009687125</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K35" t="n">
-        <v>404.7279243224438</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L35" t="n">
-        <v>873.2513289427824</v>
+        <v>800.2926980400159</v>
       </c>
       <c r="M35" t="n">
-        <v>988.434649323059</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N35" t="n">
-        <v>989.6487598248955</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O35" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P35" t="n">
-        <v>398.7619862193716</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q35" t="n">
-        <v>250.7943048037194</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R35" t="n">
         <v>125.3296184152072</v>
@@ -37382,28 +37382,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K36" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L36" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M36" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N36" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O36" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P36" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>46.63467190147161</v>
+        <v>46.63467190147163</v>
       </c>
       <c r="K37" t="n">
         <v>207.103914832725</v>
@@ -37476,13 +37476,13 @@
         <v>345.9132014559455</v>
       </c>
       <c r="O37" t="n">
-        <v>303.4093855110451</v>
+        <v>303.4093855110452</v>
       </c>
       <c r="P37" t="n">
         <v>236.0133264335158</v>
       </c>
       <c r="Q37" t="n">
-        <v>79.45049382629904</v>
+        <v>79.45049382629907</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37540,31 +37540,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K38" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L38" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M38" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N38" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O38" t="n">
-        <v>641.3060585282446</v>
+        <v>852.7555845359043</v>
       </c>
       <c r="P38" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q38" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R38" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K39" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L39" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M39" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N39" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004598</v>
       </c>
       <c r="O39" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P39" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>92.55355323165875</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K40" t="n">
         <v>253.0227961629121</v>
@@ -37935,10 +37935,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>92.55355323165878</v>
+        <v>92.55355323165881</v>
       </c>
       <c r="K43" t="n">
-        <v>253.0227961629121</v>
+        <v>253.0227961629122</v>
       </c>
       <c r="L43" t="n">
         <v>366.7325087887907</v>
@@ -38017,28 +38017,28 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K44" t="n">
-        <v>661.3366991265652</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L44" t="n">
-        <v>485.2089366502535</v>
+        <v>800.2926980400166</v>
       </c>
       <c r="M44" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N44" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O44" t="n">
-        <v>888.8531821509645</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P44" t="n">
-        <v>720.5606943908545</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q44" t="n">
-        <v>463.1092954636242</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R44" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,28 +38093,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597767</v>
       </c>
       <c r="K45" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P45" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38184,7 +38184,7 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N46" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O46" t="n">
         <v>349.3282668412323</v>
